--- a/Táblázatok/Spec.xlsx
+++ b/Táblázatok/Spec.xlsx
@@ -303,12 +303,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Maximum Voltage</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> (V)</a:t>
+                  <a:t>Maximális bemeneti feszültség (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -338,7 +334,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -376,7 +372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="433205216"/>
@@ -425,7 +421,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Maximum Current (A)</a:t>
+                  <a:t>Maximális bemeneti áram (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -455,7 +451,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="hu-HU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -493,7 +489,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="433202592"/>
@@ -534,7 +530,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1436,7 +1432,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
